--- a/data/trans_orig/P2C_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21B68EE-DFE4-478E-B52E-66997B862678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920E8650-D2B1-4758-AFD0-451AE49837FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE63464-F4C9-48BC-AD70-068A8BC078DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{940ED4B8-5A43-43AA-B256-8BE59EA26EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="394">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,7 +89,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,7 +107,7 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,87%</t>
@@ -152,7 +152,7 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -209,7 +209,7 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -248,7 +248,7 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -281,66 +281,111 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,84%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
     <t>99,23%</t>
   </si>
   <si>
@@ -368,18 +413,12 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
     <t>98,9%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
     <t>0,29%</t>
   </si>
   <si>
@@ -524,598 +563,664 @@
     <t>99,3%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2016 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2016 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2023 (Tasa respuesta: 19,74%)</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1632,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7422231A-7638-45A0-BB45-60E0C4648365}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA3593D-4439-46D3-AD1B-3F1BCED021FE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2420,46 +2525,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2920</v>
+        <v>2099</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>2180</v>
+        <v>1053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3152</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5100</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>86</v>
@@ -2471,49 +2576,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>520</v>
+        <v>301</v>
       </c>
       <c r="D20" s="7">
-        <v>499546</v>
+        <v>290484</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>658</v>
+        <v>369</v>
       </c>
       <c r="I20" s="7">
-        <v>673763</v>
+        <v>340982</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>1178</v>
+        <v>670</v>
       </c>
       <c r="N20" s="7">
-        <v>1173309</v>
+        <v>631466</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2537,10 +2642,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>675943</v>
+        <v>342035</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2552,10 +2657,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1178409</v>
+        <v>634618</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2569,55 +2674,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>11056</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>17725</v>
+        <v>1127</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>28781</v>
+        <v>1949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2731,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1875</v>
+        <v>219</v>
       </c>
       <c r="D23" s="7">
-        <v>1899170</v>
+        <v>209062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>2220</v>
+        <v>289</v>
       </c>
       <c r="I23" s="7">
-        <v>2283637</v>
+        <v>332781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
-        <v>4095</v>
+        <v>508</v>
       </c>
       <c r="N23" s="7">
-        <v>4182807</v>
+        <v>541842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,63 +2782,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11056</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="7">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17725</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="7">
+        <v>25</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28781</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1875</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1899170</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2220</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2283637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4095</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4182807</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1885</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1910226</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2235</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2301362</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>4120</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4211588</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2746,8 +3007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86767F59-DFCF-41B7-9CB5-956CDA95E6A4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68D92BF-2BE3-4201-8871-0B71AD29F35C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2763,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,7 +3137,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2891,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2906,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2939,7 +3200,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2954,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3028,10 +3289,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3040,13 +3301,13 @@
         <v>3598</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3058,10 +3319,10 @@
         <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,10 +3340,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>395</v>
@@ -3091,10 +3352,10 @@
         <v>421198</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3109,10 +3370,10 @@
         <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3441,13 @@
         <v>7693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3195,7 +3456,7 @@
         <v>7672</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>71</v>
@@ -3210,13 +3471,13 @@
         <v>15364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,10 +3492,10 @@
         <v>561862</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3246,7 +3507,7 @@
         <v>602093</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>77</v>
@@ -3258,16 +3519,16 @@
         <v>1108</v>
       </c>
       <c r="N11" s="7">
-        <v>1163956</v>
+        <v>1163957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3570,7 @@
         <v>1121</v>
       </c>
       <c r="N12" s="7">
-        <v>1179320</v>
+        <v>1179321</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3335,13 +3596,13 @@
         <v>3095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3350,13 +3611,13 @@
         <v>4286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3365,13 +3626,13 @@
         <v>7381</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3647,13 @@
         <v>372079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -3401,13 +3662,13 @@
         <v>303430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -3416,13 +3677,13 @@
         <v>675509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3505,13 +3766,13 @@
         <v>6575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3520,13 +3781,13 @@
         <v>6575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3556,13 +3817,13 @@
         <v>215543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -3571,13 +3832,13 @@
         <v>357307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,49 +3900,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2053</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>981</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>3059</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6490</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
       <c r="N19" s="7">
-        <v>9548</v>
+        <v>3034</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +3951,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>495</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>550763</v>
+        <v>303934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>681</v>
+        <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>729155</v>
+        <v>348929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>1176</v>
+        <v>615</v>
       </c>
       <c r="N20" s="7">
-        <v>1279918</v>
+        <v>652863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,10 +4002,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>498</v>
+        <v>278</v>
       </c>
       <c r="D21" s="7">
-        <v>553822</v>
+        <v>305987</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3756,10 +4017,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>687</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>735645</v>
+        <v>349910</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3771,10 +4032,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1185</v>
+        <v>618</v>
       </c>
       <c r="N21" s="7">
-        <v>1289466</v>
+        <v>655897</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3788,55 +4049,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>16701</v>
+        <v>1006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5509</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="7">
-        <v>28619</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>45320</v>
+        <v>6514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +4106,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1979</v>
+        <v>219</v>
       </c>
       <c r="D23" s="7">
-        <v>2120625</v>
+        <v>246829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>2318</v>
+        <v>342</v>
       </c>
       <c r="I23" s="7">
-        <v>2488211</v>
+        <v>380226</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
-        <v>4297</v>
+        <v>561</v>
       </c>
       <c r="N23" s="7">
-        <v>4608836</v>
+        <v>627056</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,63 +4157,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>247835</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385735</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>567</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633570</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>16701</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="7">
+        <v>25</v>
+      </c>
+      <c r="I25" s="7">
+        <v>28619</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" s="7">
+        <v>40</v>
+      </c>
+      <c r="N25" s="7">
+        <v>45320</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1979</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2120625</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2318</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2488211</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4297</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4608836</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1994</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2137326</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2343</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2516830</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>4337</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4654156</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3965,8 +4382,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8079A9D3-FD77-442E-A7AE-8BE93AE21061}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8574AF-F7A4-4BF7-81D7-E2FDF6AB6D78}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3982,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4095,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4110,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4125,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4560,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4158,7 +4575,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4173,7 +4590,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4244,13 +4661,13 @@
         <v>1016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4265,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4274,13 +4691,13 @@
         <v>1016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,10 +4712,10 @@
         <v>259681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4313,7 +4730,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4325,10 +4742,10 @@
         <v>618074</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4399,13 +4816,13 @@
         <v>4492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4414,13 +4831,13 @@
         <v>9236</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4429,13 +4846,13 @@
         <v>13728</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4867,13 @@
         <v>459884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>536</v>
@@ -4465,13 +4882,13 @@
         <v>531973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -4480,13 +4897,13 @@
         <v>991856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4971,13 @@
         <v>7395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4569,13 +4986,13 @@
         <v>4269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4584,10 +5001,10 @@
         <v>11664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>43</v>
@@ -4605,13 +5022,13 @@
         <v>332563</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -4620,13 +5037,13 @@
         <v>311587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>591</v>
@@ -4635,13 +5052,13 @@
         <v>644150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +5126,13 @@
         <v>2173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4724,13 +5141,13 @@
         <v>968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4739,13 +5156,13 @@
         <v>3141</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,10 +5177,10 @@
         <v>128061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4775,10 +5192,10 @@
         <v>203613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -4787,16 +5204,16 @@
         <v>290</v>
       </c>
       <c r="N17" s="7">
-        <v>331673</v>
+        <v>331674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,7 +5255,7 @@
         <v>293</v>
       </c>
       <c r="N18" s="7">
-        <v>334814</v>
+        <v>334815</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4858,49 +5275,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2542</v>
+        <v>952</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>8066</v>
+        <v>4174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>10608</v>
+        <v>5126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +5326,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>577</v>
+        <v>290</v>
       </c>
       <c r="D20" s="7">
-        <v>544393</v>
+        <v>299676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>613</v>
+        <v>320</v>
       </c>
       <c r="I20" s="7">
-        <v>731967</v>
+        <v>342025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
-        <v>1190</v>
+        <v>610</v>
       </c>
       <c r="N20" s="7">
-        <v>1276360</v>
+        <v>641701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,10 +5377,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>580</v>
+        <v>291</v>
       </c>
       <c r="D21" s="7">
-        <v>546935</v>
+        <v>300628</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4975,10 +5392,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>620</v>
+        <v>324</v>
       </c>
       <c r="I21" s="7">
-        <v>740033</v>
+        <v>346199</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4990,10 +5407,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1200</v>
+        <v>615</v>
       </c>
       <c r="N21" s="7">
-        <v>1286968</v>
+        <v>646827</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5007,55 +5424,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>17618</v>
+        <v>1590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>22539</v>
+        <v>3892</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>40157</v>
+        <v>5482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5481,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1825</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>1879310</v>
+        <v>244717</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>2160</v>
+        <v>293</v>
       </c>
       <c r="I23" s="7">
-        <v>2312481</v>
+        <v>389941</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
-        <v>3985</v>
+        <v>580</v>
       </c>
       <c r="N23" s="7">
-        <v>4191791</v>
+        <v>634658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,63 +5532,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>289</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246307</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>296</v>
+      </c>
+      <c r="I24" s="7">
+        <v>393833</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>585</v>
+      </c>
+      <c r="N24" s="7">
+        <v>640140</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7">
+        <v>17618</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" s="7">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22539</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" s="7">
+        <v>38</v>
+      </c>
+      <c r="N25" s="7">
+        <v>40157</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1825</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1879310</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2160</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2312481</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3985</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4191791</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1842</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1896928</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2181</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2335020</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>4023</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4231948</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5184,8 +5757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE77A4D-92B4-4BF9-9344-5F583A857731}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F075370-3C2F-42E3-B853-9802E23A2B2A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5201,7 +5774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5305,46 +5878,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>4201</v>
+        <v>4378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1616</v>
+        <v>1545</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>5817</v>
+        <v>5923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5929,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>23558</v>
+        <v>21245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -5371,13 +5944,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>37128</v>
+        <v>30649</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5386,16 +5959,16 @@
         <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>60686</v>
+        <v>51894</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5980,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>27759</v>
+        <v>25623</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5422,7 +5995,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>38744</v>
+        <v>32194</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5437,7 +6010,7 @@
         <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>66503</v>
+        <v>57817</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5460,46 +6033,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>3121</v>
+        <v>3278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>3281</v>
+        <v>3440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +6084,13 @@
         <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>52642</v>
+        <v>49353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5526,13 +6099,13 @@
         <v>103</v>
       </c>
       <c r="I8" s="7">
-        <v>109206</v>
+        <v>95446</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -5541,13 +6114,13 @@
         <v>146</v>
       </c>
       <c r="N8" s="7">
-        <v>161849</v>
+        <v>144799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -5562,7 +6135,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="7">
-        <v>55763</v>
+        <v>52631</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5577,7 +6150,7 @@
         <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>109366</v>
+        <v>95608</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5592,7 +6165,7 @@
         <v>148</v>
       </c>
       <c r="N9" s="7">
-        <v>165130</v>
+        <v>148239</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5615,46 +6188,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1891</v>
+        <v>2267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1611</v>
+        <v>1510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>3501</v>
+        <v>3777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +6239,13 @@
         <v>117</v>
       </c>
       <c r="D11" s="7">
-        <v>124619</v>
+        <v>114974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -5681,13 +6254,13 @@
         <v>200</v>
       </c>
       <c r="I11" s="7">
-        <v>149390</v>
+        <v>133528</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -5696,16 +6269,16 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>274010</v>
+        <v>248502</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,7 +6290,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>126510</v>
+        <v>117241</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5732,7 +6305,7 @@
         <v>202</v>
       </c>
       <c r="I12" s="7">
-        <v>151001</v>
+        <v>135038</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5747,7 +6320,7 @@
         <v>321</v>
       </c>
       <c r="N12" s="7">
-        <v>277511</v>
+        <v>252279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5770,46 +6343,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>10662</v>
+        <v>10340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>9222</v>
+        <v>8493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>19884</v>
+        <v>18833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,46 +6394,46 @@
         <v>98</v>
       </c>
       <c r="D14" s="7">
-        <v>103067</v>
+        <v>93251</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>115338</v>
+        <v>102780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>269</v>
       </c>
       <c r="N14" s="7">
-        <v>218405</v>
+        <v>196031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +6445,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="7">
-        <v>113729</v>
+        <v>103591</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5887,7 +6460,7 @@
         <v>186</v>
       </c>
       <c r="I15" s="7">
-        <v>124560</v>
+        <v>111273</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5902,7 +6475,7 @@
         <v>293</v>
       </c>
       <c r="N15" s="7">
-        <v>238289</v>
+        <v>214864</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5925,46 +6498,46 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>12397</v>
+        <v>11727</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>7804</v>
+        <v>7112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>20201</v>
+        <v>18839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,46 +6549,46 @@
         <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>56141</v>
+        <v>52088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
       </c>
       <c r="I17" s="7">
-        <v>68619</v>
+        <v>62322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
       </c>
       <c r="N17" s="7">
-        <v>124760</v>
+        <v>114410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6600,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="7">
-        <v>68538</v>
+        <v>63815</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6042,7 +6615,7 @@
         <v>123</v>
       </c>
       <c r="I18" s="7">
-        <v>76423</v>
+        <v>69434</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6057,7 +6630,7 @@
         <v>198</v>
       </c>
       <c r="N18" s="7">
-        <v>144961</v>
+        <v>133249</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6077,49 +6650,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>52517</v>
+        <v>9379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>112649</v>
+        <v>15398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>165167</v>
+        <v>24777</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,49 +6701,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
-        <v>84180</v>
+        <v>33017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7">
-        <v>276652</v>
+        <v>253975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
-        <v>427</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>360831</v>
+        <v>286992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,10 +6752,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>136697</v>
+        <v>42396</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6194,10 +6767,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>516</v>
+        <v>134</v>
       </c>
       <c r="I21" s="7">
-        <v>389301</v>
+        <v>269373</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6209,10 +6782,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>201</v>
       </c>
       <c r="N21" s="7">
-        <v>525998</v>
+        <v>311769</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6226,55 +6799,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>84788</v>
+        <v>39966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="I22" s="7">
-        <v>133063</v>
+        <v>86062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="N22" s="7">
-        <v>217851</v>
+        <v>126028</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,49 +6856,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>444207</v>
+        <v>43990</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H23" s="7">
-        <v>909</v>
+        <v>198</v>
       </c>
       <c r="I23" s="7">
-        <v>756332</v>
+        <v>97853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="M23" s="7">
-        <v>1369</v>
+        <v>275</v>
       </c>
       <c r="N23" s="7">
-        <v>1200539</v>
+        <v>141842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,63 +6907,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>143</v>
+      </c>
+      <c r="D24" s="7">
+        <v>83956</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>382</v>
+      </c>
+      <c r="I24" s="7">
+        <v>183915</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>525</v>
+      </c>
+      <c r="N24" s="7">
+        <v>267870</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>110</v>
+      </c>
+      <c r="D25" s="7">
+        <v>81334</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" s="7">
+        <v>247</v>
+      </c>
+      <c r="I25" s="7">
+        <v>120283</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M25" s="7">
+        <v>357</v>
+      </c>
+      <c r="N25" s="7">
+        <v>201617</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>460</v>
+      </c>
+      <c r="D26" s="7">
+        <v>407919</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H26" s="7">
+        <v>909</v>
+      </c>
+      <c r="I26" s="7">
+        <v>776551</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1369</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1184470</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>570</v>
       </c>
-      <c r="D24" s="7">
-        <v>528995</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>489253</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>1156</v>
       </c>
-      <c r="I24" s="7">
-        <v>889395</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>896834</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>1726</v>
       </c>
-      <c r="N24" s="7">
-        <v>1418390</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
+      <c r="N27" s="7">
+        <v>1386087</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
